--- a/biology/Botanique/Potamot_noueux/Potamot_noueux.xlsx
+++ b/biology/Botanique/Potamot_noueux/Potamot_noueux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamogeton nodosus, le Potamot noueux, est une espèce de plantes aquatiques de la famille des Potamogetonaceae. Connue sous le nom commun de potamot, elle est originaire d'Eurasie et des Amériques, où elle est répandue dans des plans d'eau comme les étangs, les lacs, les fossés et les cours d'eau.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace produisant une hampe florale s'érigeant verticalement, ses tiges sont ramifiées, lon gues d'un mètre environ. Les feuilles sont linéaires et largement lancéolées 15 centimètres de long, 4 de large. Les feuilles flottantes et submergées sont maintenues par de longs pétioles. L'inflorescence est un épi offrant de nombreuses petites fleurs.
 </t>
@@ -542,11 +556,13 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 avril 2014) :
 Potamogeton nodosus Poir. (1816)
-Selon Tropicos                                           (11 avril 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 avril 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Potamogeton nodosus var. stagnatilis (W.D.J. Koch) Soó
 forme Potamogeton nodosus fo. angustissimus Hagstr.
 forme Potamogeton nodosus fo. brevifolius (G. Fisch.) Soó
